--- a/WorkSpace/分层和储层表整理工区/Result_New.xlsx
+++ b/WorkSpace/分层和储层表整理工区/Result_New.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="24525" windowHeight="12090" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result" sheetId="1" state="visible" r:id="rId1"/>
@@ -34,15 +34,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -64,8 +64,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -79,8 +85,16 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
       <u val="single"/>
       <scheme val="minor"/>
@@ -95,6 +109,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -117,15 +139,17 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,36 +162,12 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
       <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -184,12 +184,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -202,163 +328,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,17 +372,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -422,20 +422,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,21 +469,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -477,145 +477,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -943,7 +943,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,31 +1006,31 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>长兴组</t>
+          <t>沙二</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>5348.0</t>
+          <t>1129.0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5375.0</t>
+          <t>1143.0</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>17.1</v>
+        <v>13.8</v>
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>气层</t>
+          <t>差气层</t>
         </is>
       </c>
     </row>
@@ -1040,31 +1040,31 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>长兴组</t>
+          <t>沙二</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>5378.0</t>
+          <t>1431.3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5460.0</t>
+          <t>1436.4</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>82</v>
+        <v>5.1</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>82</v>
+        <v>5.1</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>72.40000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>气层</t>
+          <t>差气层</t>
         </is>
       </c>
     </row>
@@ -1074,31 +1074,31 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>长兴组</t>
+          <t>沙二</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>5462.0</t>
+          <t>1996.4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5520.9</t>
+          <t>2009.9</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>58.9</v>
+        <v>13.5</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>58.9</v>
+        <v>13.5</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>57.4</v>
+        <v>7.8</v>
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>气层</t>
+          <t>差气层</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>长兴组</t>
+          <t>沙二</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>5522.0</t>
+          <t>2366.0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5564.0</t>
+          <t>2619.5</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>42</v>
+        <v>253.5</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>42</v>
+        <v>253.5</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>40.8</v>
+        <v>248.9</v>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
@@ -1142,27 +1142,27 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>长兴组</t>
+          <t>沙二</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>5565.5</t>
+          <t>2627.2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5643.5</t>
+          <t>2768.2</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>72.59999999999999</v>
+        <v>141</v>
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
@@ -1176,31 +1176,31 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>长兴组</t>
+          <t>沙二</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>5645.0</t>
+          <t>2835.1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5662.5</t>
+          <t>2905.5</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>17.5</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>17.5</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>15.5</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>差气层</t>
+          <t>气层</t>
         </is>
       </c>
     </row>
@@ -1210,27 +1210,27 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>长兴组</t>
+          <t>沙二</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>5667.0</t>
+          <t>2940.0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5761.3</t>
+          <t>3066.0</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>94.3</v>
+        <v>126</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>94.3</v>
+        <v>126</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>87.3</v>
+        <v>126</v>
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
@@ -1244,233 +1244,29 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>长兴组</t>
+          <t>沙二</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>5770.0</t>
+          <t>3096.0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5785.0</t>
+          <t>3212.6</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>15</v>
+        <v>116.6</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>15</v>
+        <v>116.6</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>9.6</v>
+        <v>116.5</v>
       </c>
       <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>气层</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>长兴组</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>5790.0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5793.0</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>3</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>差气层</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>长兴组</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>5800.0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5814.0</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>14</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>气层</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>长兴组</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>6536.9</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>6571.0</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>差气层</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>长兴组</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>6725.0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>6774.0</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>49</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>49</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>气层</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>长兴组</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>6842.0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>6906.0</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>64</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>59.8</v>
-      </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>气层</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>长兴组</t>
-        </is>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>6909.0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>6950.0</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>41</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="H16" s="0" t="inlineStr">
         <is>
           <t>气层</t>
         </is>
